--- a/5. Evaluation/port_req_hist.xlsx
+++ b/5. Evaluation/port_req_hist.xlsx
@@ -384,7 +384,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D6"/>
+  <dimension ref="A1:D2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -406,69 +406,13 @@
         <v>0</v>
       </c>
       <c r="B2" s="2">
-        <v>40513</v>
+        <v>42339</v>
       </c>
       <c r="C2">
         <v>1</v>
       </c>
       <c r="D2">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4">
-      <c r="A3" s="1">
-        <v>1</v>
-      </c>
-      <c r="B3" s="2">
-        <v>40544</v>
-      </c>
-      <c r="C3">
-        <v>1</v>
-      </c>
-      <c r="D3">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4">
-      <c r="A4" s="1">
-        <v>2</v>
-      </c>
-      <c r="B4" s="2">
-        <v>40575</v>
-      </c>
-      <c r="C4">
-        <v>1</v>
-      </c>
-      <c r="D4">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4">
-      <c r="A5" s="1">
-        <v>3</v>
-      </c>
-      <c r="B5" s="2">
-        <v>40603</v>
-      </c>
-      <c r="C5">
-        <v>1</v>
-      </c>
-      <c r="D5">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4">
-      <c r="A6" s="1">
-        <v>4</v>
-      </c>
-      <c r="B6" s="2">
-        <v>40634</v>
-      </c>
-      <c r="C6">
-        <v>1</v>
-      </c>
-      <c r="D6">
-        <v>38</v>
+        <v>42</v>
       </c>
     </row>
   </sheetData>
